--- a/ECE-5_timetable.xlsx
+++ b/ECE-5_timetable.xlsx
@@ -944,7 +944,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr.Jagdish R.B</t>
+          <t>Dr. Jagadeesha Bhat</t>
         </is>
       </c>
       <c r="G10" s="11" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Chandrika K</t>
         </is>
       </c>
       <c r="G11" s="12" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Dr.Jagdish D.N</t>
+          <t>Dr. Jagadish D N</t>
         </is>
       </c>
       <c r="G13" s="14" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Dr.Jagdish R.B</t>
+          <t>Dr. Jagadeesha Bhat</t>
         </is>
       </c>
       <c r="G10" s="11" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Chandrika K</t>
         </is>
       </c>
       <c r="G11" s="12" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Dr.Jagdish D.N</t>
+          <t>Dr. Jagadish D N</t>
         </is>
       </c>
       <c r="G13" s="14" t="inlineStr"/>
